--- a/Kriterienkatalog/KriterienDiensteListe.xlsx
+++ b/Kriterienkatalog/KriterienDiensteListe.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="78">
   <si>
     <t>WebDienst</t>
   </si>
@@ -48,21 +48,6 @@
   </si>
   <si>
     <t>Sicherheit</t>
-  </si>
-  <si>
-    <t>Nutzungsmöglichkeiten</t>
-  </si>
-  <si>
-    <t>Applikation</t>
-  </si>
-  <si>
-    <t>App(mobil)</t>
-  </si>
-  <si>
-    <t>Webseite</t>
-  </si>
-  <si>
-    <t>Komposition</t>
   </si>
   <si>
     <t>Szenarien</t>
@@ -258,16 +243,55 @@
   </si>
   <si>
     <t>Funktionen der API</t>
+  </si>
+  <si>
+    <t>https://developer.github.com/v3/</t>
+  </si>
+  <si>
+    <t>https://developers.google.com/sheets/quickstart/nodejs#prerequisites
+https://developers.google.com/sheets/reference/rest/</t>
+  </si>
+  <si>
+    <t>REST,Library für viele Sprachen</t>
+  </si>
+  <si>
+    <t>https://confluence.atlassian.com/bitbucket/use-the-bitbucket-cloud-rest-apis-222724129.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">REST </t>
+  </si>
+  <si>
+    <t>OAUTH1.0a</t>
+  </si>
+  <si>
+    <t>alles</t>
+  </si>
+  <si>
+    <t>https://api.slack.com/web</t>
+  </si>
+  <si>
+    <t>HTTP RPC Style</t>
+  </si>
+  <si>
+    <t>Kompositon</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -323,28 +347,27 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Link" xfId="1" builtinId="8"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -657,10 +680,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="F2:S37"/>
+  <dimension ref="F2:P37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="R4" sqref="R4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -669,12 +692,14 @@
     <col min="7" max="7" width="25.28515625" customWidth="1"/>
     <col min="8" max="8" width="23" customWidth="1"/>
     <col min="9" max="9" width="29.85546875" customWidth="1"/>
-    <col min="10" max="10" width="69" customWidth="1"/>
+    <col min="10" max="10" width="71.85546875" customWidth="1"/>
+    <col min="11" max="11" width="29.5703125" customWidth="1"/>
     <col min="12" max="12" width="22.7109375" customWidth="1"/>
-    <col min="13" max="13" width="15.7109375" customWidth="1"/>
+    <col min="13" max="13" width="17.5703125" customWidth="1"/>
+    <col min="17" max="17" width="14.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="6:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F2" s="4"/>
       <c r="G2" s="4" t="s">
         <v>3</v>
@@ -687,14 +712,11 @@
       <c r="M2" s="5"/>
       <c r="N2" s="5"/>
       <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2"/>
-      <c r="R2" s="2"/>
-      <c r="S2" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="6:19" x14ac:dyDescent="0.25">
+      <c r="P2" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="3" spans="6:16" ht="30" x14ac:dyDescent="0.25">
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
@@ -709,14 +731,9 @@
       </c>
       <c r="N3" s="5"/>
       <c r="O3" s="2"/>
-      <c r="P3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q3" s="2"/>
-      <c r="R3" s="2"/>
-      <c r="S3" s="3"/>
-    </row>
-    <row r="4" spans="6:19" x14ac:dyDescent="0.25">
+      <c r="P3" s="3"/>
+    </row>
+    <row r="4" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F4" s="4" t="s">
         <v>0</v>
       </c>
@@ -724,19 +741,19 @@
         <v>1</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="I4" s="4" t="s">
         <v>2</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="K4" s="5" t="s">
         <v>6</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="M4" s="5" t="s">
         <v>6</v>
@@ -745,243 +762,242 @@
         <v>7</v>
       </c>
       <c r="O4" s="2"/>
-      <c r="P4" s="2" t="s">
+      <c r="P4" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="6:16" ht="60" x14ac:dyDescent="0.25">
+      <c r="F5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="Q4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="R4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="S4" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="6:19" ht="60" x14ac:dyDescent="0.25">
-      <c r="F5" s="4" t="s">
-        <v>14</v>
-      </c>
       <c r="G5" s="4" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="I5" s="6" t="s">
-        <v>49</v>
+        <v>40</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>44</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="K5" s="5"/>
       <c r="L5" s="5"/>
       <c r="M5" s="5"/>
       <c r="N5" s="5"/>
       <c r="O5" s="2"/>
-      <c r="P5" s="2"/>
-      <c r="Q5" s="2"/>
-      <c r="R5" s="2"/>
-      <c r="S5" s="3"/>
-    </row>
-    <row r="6" spans="6:19" ht="75" x14ac:dyDescent="0.25">
+      <c r="P5" s="3"/>
+    </row>
+    <row r="6" spans="6:16" ht="75" x14ac:dyDescent="0.25">
       <c r="F6" s="4" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="H6" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="I6" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="I6" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>63</v>
+      <c r="J6" s="5" t="s">
+        <v>58</v>
       </c>
       <c r="K6" s="5" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="L6" s="5"/>
       <c r="M6" s="5" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="N6" s="5"/>
       <c r="O6" s="2"/>
-      <c r="P6" s="2"/>
-      <c r="Q6" s="2"/>
-      <c r="R6" s="2"/>
-      <c r="S6" s="3"/>
-    </row>
-    <row r="7" spans="6:19" ht="45" x14ac:dyDescent="0.25">
+      <c r="P6" s="3"/>
+    </row>
+    <row r="7" spans="6:16" ht="30" x14ac:dyDescent="0.25">
       <c r="F7" s="4" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="I7" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>66</v>
+        <v>40</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="K7" s="5" t="s">
+        <v>61</v>
       </c>
       <c r="L7" s="5"/>
       <c r="M7" s="5" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="N7" s="5"/>
       <c r="O7" s="2"/>
-      <c r="P7" s="2"/>
-      <c r="Q7" s="2"/>
-      <c r="R7" s="2"/>
-      <c r="S7" s="3"/>
-    </row>
-    <row r="8" spans="6:19" ht="45" x14ac:dyDescent="0.25">
+      <c r="P7" s="3"/>
+    </row>
+    <row r="8" spans="6:16" ht="45" x14ac:dyDescent="0.25">
       <c r="F8" s="4" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="H8" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="I8" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="I8" s="6" t="s">
-        <v>50</v>
-      </c>
       <c r="J8" s="5" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="L8" s="5"/>
+        <v>65</v>
+      </c>
+      <c r="L8" s="5" t="s">
+        <v>74</v>
+      </c>
       <c r="M8" s="5" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="N8" s="5"/>
       <c r="O8" s="2"/>
-      <c r="P8" s="2"/>
-      <c r="Q8" s="2"/>
-      <c r="R8" s="2"/>
-      <c r="S8" s="3"/>
-    </row>
-    <row r="9" spans="6:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="P8" s="3"/>
+    </row>
+    <row r="9" spans="6:16" ht="30" x14ac:dyDescent="0.25">
       <c r="F9" s="4" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="I9" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
-      <c r="M9" s="5"/>
+        <v>40</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="J9" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="K9" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="L9" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="M9" s="5" t="s">
+        <v>66</v>
+      </c>
       <c r="N9" s="5"/>
       <c r="O9" s="2"/>
-      <c r="P9" s="2"/>
-      <c r="Q9" s="2"/>
-      <c r="R9" s="2"/>
-      <c r="S9" s="3"/>
-    </row>
-    <row r="10" spans="6:19" x14ac:dyDescent="0.25">
+      <c r="P9" s="3"/>
+    </row>
+    <row r="10" spans="6:16" ht="30" x14ac:dyDescent="0.25">
       <c r="F10" s="4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="I10" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
-      <c r="M10" s="5"/>
+        <v>40</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="K10" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="L10" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="M10" s="5" t="s">
+        <v>66</v>
+      </c>
       <c r="N10" s="5"/>
       <c r="O10" s="2"/>
-      <c r="P10" s="2"/>
-      <c r="Q10" s="2"/>
-      <c r="R10" s="2"/>
-      <c r="S10" s="3"/>
-    </row>
-    <row r="11" spans="6:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="P10" s="3"/>
+    </row>
+    <row r="11" spans="6:16" ht="30" x14ac:dyDescent="0.25">
       <c r="F11" s="4" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="I11" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
-      <c r="M11" s="5"/>
+        <v>40</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="K11" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="L11" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="M11" s="5" t="s">
+        <v>73</v>
+      </c>
       <c r="N11" s="5"/>
       <c r="O11" s="2"/>
-      <c r="P11" s="2"/>
-      <c r="Q11" s="2"/>
-      <c r="R11" s="2"/>
-      <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="6:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="6:16" ht="30" x14ac:dyDescent="0.25">
       <c r="F12" s="4" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="I12" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
+        <v>40</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="J12" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="K12" s="5" t="s">
+        <v>76</v>
+      </c>
       <c r="L12" s="5"/>
-      <c r="M12" s="5"/>
+      <c r="M12" s="5" t="s">
+        <v>66</v>
+      </c>
       <c r="N12" s="5"/>
       <c r="O12" s="2"/>
-      <c r="P12" s="2"/>
-      <c r="Q12" s="2"/>
-      <c r="R12" s="2"/>
-      <c r="S12" s="3"/>
-    </row>
-    <row r="13" spans="6:19" x14ac:dyDescent="0.25">
+      <c r="P12" s="3"/>
+    </row>
+    <row r="13" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F13" s="4" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="I13" s="6" t="s">
-        <v>47</v>
+        <v>40</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>42</v>
       </c>
       <c r="J13" s="5"/>
       <c r="K13" s="5"/>
@@ -989,23 +1005,20 @@
       <c r="M13" s="5"/>
       <c r="N13" s="5"/>
       <c r="O13" s="2"/>
-      <c r="P13" s="2"/>
-      <c r="Q13" s="2"/>
-      <c r="R13" s="2"/>
-      <c r="S13" s="3"/>
-    </row>
-    <row r="14" spans="6:19" ht="45" x14ac:dyDescent="0.25">
+      <c r="P13" s="3"/>
+    </row>
+    <row r="14" spans="6:16" ht="45" x14ac:dyDescent="0.25">
       <c r="F14" s="4" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="H14" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="I14" s="4" t="s">
         <v>45</v>
-      </c>
-      <c r="I14" s="6" t="s">
-        <v>50</v>
       </c>
       <c r="J14" s="5"/>
       <c r="K14" s="5"/>
@@ -1013,23 +1026,20 @@
       <c r="M14" s="5"/>
       <c r="N14" s="5"/>
       <c r="O14" s="2"/>
-      <c r="P14" s="2"/>
-      <c r="Q14" s="2"/>
-      <c r="R14" s="2"/>
-      <c r="S14" s="3"/>
-    </row>
-    <row r="15" spans="6:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="P14" s="3"/>
+    </row>
+    <row r="15" spans="6:16" ht="30" x14ac:dyDescent="0.25">
       <c r="F15" s="4" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="I15" s="6" t="s">
-        <v>51</v>
+        <v>40</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>46</v>
       </c>
       <c r="J15" s="5"/>
       <c r="K15" s="5"/>
@@ -1037,23 +1047,20 @@
       <c r="M15" s="5"/>
       <c r="N15" s="5"/>
       <c r="O15" s="2"/>
-      <c r="P15" s="2"/>
-      <c r="Q15" s="2"/>
-      <c r="R15" s="2"/>
-      <c r="S15" s="3"/>
-    </row>
-    <row r="16" spans="6:19" ht="45" x14ac:dyDescent="0.25">
+      <c r="P15" s="3"/>
+    </row>
+    <row r="16" spans="6:16" ht="45" x14ac:dyDescent="0.25">
       <c r="F16" s="4" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="H16" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="I16" s="4" t="s">
         <v>45</v>
-      </c>
-      <c r="I16" s="6" t="s">
-        <v>50</v>
       </c>
       <c r="J16" s="5"/>
       <c r="K16" s="5"/>
@@ -1061,23 +1068,20 @@
       <c r="M16" s="5"/>
       <c r="N16" s="5"/>
       <c r="O16" s="2"/>
-      <c r="P16" s="2"/>
-      <c r="Q16" s="2"/>
-      <c r="R16" s="2"/>
-      <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="6:19" ht="45" x14ac:dyDescent="0.25">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="6:16" ht="45" x14ac:dyDescent="0.25">
       <c r="F17" s="4" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="I17" s="6" t="s">
-        <v>54</v>
+        <v>40</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>49</v>
       </c>
       <c r="J17" s="5"/>
       <c r="K17" s="5"/>
@@ -1085,23 +1089,20 @@
       <c r="M17" s="5"/>
       <c r="N17" s="5"/>
       <c r="O17" s="2"/>
-      <c r="P17" s="2"/>
-      <c r="Q17" s="2"/>
-      <c r="R17" s="2"/>
-      <c r="S17" s="3"/>
-    </row>
-    <row r="18" spans="6:19" x14ac:dyDescent="0.25">
+      <c r="P17" s="3"/>
+    </row>
+    <row r="18" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F18" s="4" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="I18" s="6" t="s">
-        <v>53</v>
+        <v>40</v>
+      </c>
+      <c r="I18" s="4" t="s">
+        <v>48</v>
       </c>
       <c r="J18" s="5"/>
       <c r="K18" s="5"/>
@@ -1109,23 +1110,20 @@
       <c r="M18" s="5"/>
       <c r="N18" s="5"/>
       <c r="O18" s="2"/>
-      <c r="P18" s="2"/>
-      <c r="Q18" s="2"/>
-      <c r="R18" s="2"/>
-      <c r="S18" s="3"/>
-    </row>
-    <row r="19" spans="6:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="P18" s="3"/>
+    </row>
+    <row r="19" spans="6:16" ht="30" x14ac:dyDescent="0.25">
       <c r="F19" s="4" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="I19" s="6" t="s">
-        <v>55</v>
+        <v>40</v>
+      </c>
+      <c r="I19" s="4" t="s">
+        <v>50</v>
       </c>
       <c r="J19" s="5"/>
       <c r="K19" s="5"/>
@@ -1133,23 +1131,20 @@
       <c r="M19" s="5"/>
       <c r="N19" s="5"/>
       <c r="O19" s="2"/>
-      <c r="P19" s="2"/>
-      <c r="Q19" s="2"/>
-      <c r="R19" s="2"/>
-      <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="6:19" ht="45" x14ac:dyDescent="0.25">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="6:16" ht="45" x14ac:dyDescent="0.25">
       <c r="F20" s="4" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="H20" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="I20" s="4" t="s">
         <v>45</v>
-      </c>
-      <c r="I20" s="6" t="s">
-        <v>50</v>
       </c>
       <c r="J20" s="5"/>
       <c r="K20" s="5"/>
@@ -1157,23 +1152,20 @@
       <c r="M20" s="5"/>
       <c r="N20" s="5"/>
       <c r="O20" s="2"/>
-      <c r="P20" s="2"/>
-      <c r="Q20" s="2"/>
-      <c r="R20" s="2"/>
-      <c r="S20" s="3"/>
-    </row>
-    <row r="21" spans="6:19" x14ac:dyDescent="0.25">
+      <c r="P20" s="3"/>
+    </row>
+    <row r="21" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F21" s="4" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="I21" s="6" t="s">
-        <v>56</v>
+        <v>40</v>
+      </c>
+      <c r="I21" s="4" t="s">
+        <v>51</v>
       </c>
       <c r="J21" s="5"/>
       <c r="K21" s="5"/>
@@ -1181,23 +1173,20 @@
       <c r="M21" s="5"/>
       <c r="N21" s="5"/>
       <c r="O21" s="2"/>
-      <c r="P21" s="2"/>
-      <c r="Q21" s="2"/>
-      <c r="R21" s="2"/>
-      <c r="S21" s="3"/>
-    </row>
-    <row r="22" spans="6:19" ht="45" x14ac:dyDescent="0.25">
+      <c r="P21" s="3"/>
+    </row>
+    <row r="22" spans="6:16" ht="45" x14ac:dyDescent="0.25">
       <c r="F22" s="4" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="I22" s="6" t="s">
-        <v>58</v>
+        <v>40</v>
+      </c>
+      <c r="I22" s="4" t="s">
+        <v>53</v>
       </c>
       <c r="J22" s="5"/>
       <c r="K22" s="5"/>
@@ -1205,23 +1194,20 @@
       <c r="M22" s="5"/>
       <c r="N22" s="5"/>
       <c r="O22" s="2"/>
-      <c r="P22" s="2"/>
-      <c r="Q22" s="2"/>
-      <c r="R22" s="2"/>
-      <c r="S22" s="3"/>
-    </row>
-    <row r="23" spans="6:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="P22" s="3"/>
+    </row>
+    <row r="23" spans="6:16" ht="30" x14ac:dyDescent="0.25">
       <c r="F23" s="4" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="I23" s="6" t="s">
-        <v>51</v>
+        <v>40</v>
+      </c>
+      <c r="I23" s="4" t="s">
+        <v>46</v>
       </c>
       <c r="J23" s="5"/>
       <c r="K23" s="5"/>
@@ -1229,23 +1215,20 @@
       <c r="M23" s="5"/>
       <c r="N23" s="5"/>
       <c r="O23" s="2"/>
-      <c r="P23" s="2"/>
-      <c r="Q23" s="2"/>
-      <c r="R23" s="2"/>
-      <c r="S23" s="3"/>
-    </row>
-    <row r="24" spans="6:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="P23" s="3"/>
+    </row>
+    <row r="24" spans="6:16" ht="30" x14ac:dyDescent="0.25">
       <c r="F24" s="4" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="I24" s="6" t="s">
-        <v>51</v>
+        <v>40</v>
+      </c>
+      <c r="I24" s="4" t="s">
+        <v>46</v>
       </c>
       <c r="J24" s="5"/>
       <c r="K24" s="5"/>
@@ -1253,23 +1236,20 @@
       <c r="M24" s="5"/>
       <c r="N24" s="5"/>
       <c r="O24" s="2"/>
-      <c r="P24" s="2"/>
-      <c r="Q24" s="2"/>
-      <c r="R24" s="2"/>
-      <c r="S24" s="3"/>
-    </row>
-    <row r="25" spans="6:19" x14ac:dyDescent="0.25">
+      <c r="P24" s="3"/>
+    </row>
+    <row r="25" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F25" s="4" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="I25" s="6" t="s">
-        <v>59</v>
+        <v>40</v>
+      </c>
+      <c r="I25" s="4" t="s">
+        <v>54</v>
       </c>
       <c r="J25" s="5"/>
       <c r="K25" s="5"/>
@@ -1277,23 +1257,20 @@
       <c r="M25" s="5"/>
       <c r="N25" s="5"/>
       <c r="O25" s="2"/>
-      <c r="P25" s="2"/>
-      <c r="Q25" s="2"/>
-      <c r="R25" s="2"/>
-      <c r="S25" s="3"/>
-    </row>
-    <row r="26" spans="6:19" x14ac:dyDescent="0.25">
+      <c r="P25" s="3"/>
+    </row>
+    <row r="26" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F26" s="4" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="I26" s="6" t="s">
-        <v>60</v>
+        <v>40</v>
+      </c>
+      <c r="I26" s="4" t="s">
+        <v>55</v>
       </c>
       <c r="J26" s="5"/>
       <c r="K26" s="5"/>
@@ -1301,23 +1278,20 @@
       <c r="M26" s="5"/>
       <c r="N26" s="5"/>
       <c r="O26" s="2"/>
-      <c r="P26" s="2"/>
-      <c r="Q26" s="2"/>
-      <c r="R26" s="2"/>
-      <c r="S26" s="3"/>
-    </row>
-    <row r="27" spans="6:19" x14ac:dyDescent="0.25">
+      <c r="P26" s="3"/>
+    </row>
+    <row r="27" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F27" s="4" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H27" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="I27" s="6" t="s">
-        <v>61</v>
+        <v>40</v>
+      </c>
+      <c r="I27" s="4" t="s">
+        <v>56</v>
       </c>
       <c r="J27" s="5"/>
       <c r="K27" s="5"/>
@@ -1325,23 +1299,20 @@
       <c r="M27" s="5"/>
       <c r="N27" s="5"/>
       <c r="O27" s="2"/>
-      <c r="P27" s="2"/>
-      <c r="Q27" s="2"/>
-      <c r="R27" s="2"/>
-      <c r="S27" s="3"/>
-    </row>
-    <row r="28" spans="6:19" x14ac:dyDescent="0.25">
+      <c r="P27" s="3"/>
+    </row>
+    <row r="28" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F28" s="4" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="I28" s="6" t="s">
-        <v>57</v>
+        <v>41</v>
+      </c>
+      <c r="I28" s="4" t="s">
+        <v>52</v>
       </c>
       <c r="J28" s="5"/>
       <c r="K28" s="5"/>
@@ -1349,12 +1320,9 @@
       <c r="M28" s="5"/>
       <c r="N28" s="5"/>
       <c r="O28" s="2"/>
-      <c r="P28" s="2"/>
-      <c r="Q28" s="2"/>
-      <c r="R28" s="2"/>
-      <c r="S28" s="3"/>
-    </row>
-    <row r="29" spans="6:19" x14ac:dyDescent="0.25">
+      <c r="P28" s="3"/>
+    </row>
+    <row r="29" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
@@ -1365,12 +1333,9 @@
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
-      <c r="P29" s="2"/>
-      <c r="Q29" s="2"/>
-      <c r="R29" s="2"/>
-      <c r="S29" s="3"/>
-    </row>
-    <row r="30" spans="6:19" x14ac:dyDescent="0.25">
+      <c r="P29" s="3"/>
+    </row>
+    <row r="30" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
@@ -1381,12 +1346,9 @@
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
-      <c r="P30" s="2"/>
-      <c r="Q30" s="2"/>
-      <c r="R30" s="2"/>
-      <c r="S30" s="3"/>
-    </row>
-    <row r="31" spans="6:19" x14ac:dyDescent="0.25">
+      <c r="P30" s="3"/>
+    </row>
+    <row r="31" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
@@ -1397,12 +1359,9 @@
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
-      <c r="P31" s="2"/>
-      <c r="Q31" s="2"/>
-      <c r="R31" s="2"/>
-      <c r="S31" s="3"/>
-    </row>
-    <row r="32" spans="6:19" x14ac:dyDescent="0.25">
+      <c r="P31" s="3"/>
+    </row>
+    <row r="32" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
@@ -1413,12 +1372,9 @@
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
-      <c r="P32" s="2"/>
-      <c r="Q32" s="2"/>
-      <c r="R32" s="2"/>
-      <c r="S32" s="3"/>
-    </row>
-    <row r="33" spans="6:19" x14ac:dyDescent="0.25">
+      <c r="P32" s="3"/>
+    </row>
+    <row r="33" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
@@ -1429,12 +1385,9 @@
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
-      <c r="P33" s="2"/>
-      <c r="Q33" s="2"/>
-      <c r="R33" s="2"/>
-      <c r="S33" s="3"/>
-    </row>
-    <row r="34" spans="6:19" x14ac:dyDescent="0.25">
+      <c r="P33" s="3"/>
+    </row>
+    <row r="34" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
@@ -1445,12 +1398,9 @@
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
-      <c r="P34" s="2"/>
-      <c r="Q34" s="2"/>
-      <c r="R34" s="2"/>
-      <c r="S34" s="3"/>
-    </row>
-    <row r="35" spans="6:19" x14ac:dyDescent="0.25">
+      <c r="P34" s="3"/>
+    </row>
+    <row r="35" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
@@ -1461,12 +1411,9 @@
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
-      <c r="P35" s="2"/>
-      <c r="Q35" s="2"/>
-      <c r="R35" s="2"/>
-      <c r="S35" s="3"/>
-    </row>
-    <row r="36" spans="6:19" x14ac:dyDescent="0.25">
+      <c r="P35" s="3"/>
+    </row>
+    <row r="36" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
@@ -1477,12 +1424,9 @@
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
-      <c r="P36" s="2"/>
-      <c r="Q36" s="2"/>
-      <c r="R36" s="2"/>
-      <c r="S36" s="3"/>
-    </row>
-    <row r="37" spans="6:19" x14ac:dyDescent="0.25">
+      <c r="P36" s="3"/>
+    </row>
+    <row r="37" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
@@ -1493,12 +1437,12 @@
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
-      <c r="P37" s="2"/>
-      <c r="Q37" s="2"/>
-      <c r="R37" s="2"/>
-      <c r="S37" s="3"/>
+      <c r="P37" s="3"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="J9" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Kriterienkatalog/KriterienDiensteListe.xlsx
+++ b/Kriterienkatalog/KriterienDiensteListe.xlsx
@@ -1,21 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\phili\git\ba\Kriterienkatalog\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="26024"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="15980"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
@@ -24,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="77">
   <si>
     <t>WebDienst</t>
   </si>
@@ -261,9 +259,6 @@
     <t xml:space="preserve">REST </t>
   </si>
   <si>
-    <t>OAUTH1.0a</t>
-  </si>
-  <si>
     <t>alles</t>
   </si>
   <si>
@@ -279,7 +274,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -333,16 +328,16 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -426,7 +421,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -478,7 +473,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -672,7 +667,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -682,24 +677,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="F2:P37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="R4" sqref="R4"/>
+    <sheetView tabSelected="1" topLeftCell="H2" workbookViewId="0">
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="6" max="6" width="16.28515625" customWidth="1"/>
-    <col min="7" max="7" width="25.28515625" customWidth="1"/>
+    <col min="6" max="6" width="16.33203125" customWidth="1"/>
+    <col min="7" max="7" width="25.33203125" customWidth="1"/>
     <col min="8" max="8" width="23" customWidth="1"/>
-    <col min="9" max="9" width="29.85546875" customWidth="1"/>
-    <col min="10" max="10" width="71.85546875" customWidth="1"/>
-    <col min="11" max="11" width="29.5703125" customWidth="1"/>
-    <col min="12" max="12" width="22.7109375" customWidth="1"/>
-    <col min="13" max="13" width="17.5703125" customWidth="1"/>
-    <col min="17" max="17" width="14.140625" customWidth="1"/>
+    <col min="9" max="9" width="29.83203125" customWidth="1"/>
+    <col min="10" max="10" width="71.83203125" customWidth="1"/>
+    <col min="11" max="11" width="29.5" customWidth="1"/>
+    <col min="12" max="12" width="22.6640625" customWidth="1"/>
+    <col min="13" max="13" width="17.5" customWidth="1"/>
+    <col min="17" max="17" width="14.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="6:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="6:16">
       <c r="F2" s="4"/>
       <c r="G2" s="4" t="s">
         <v>3</v>
@@ -713,10 +708,10 @@
       <c r="N2" s="5"/>
       <c r="O2" s="2"/>
       <c r="P2" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="3" spans="6:16" ht="30" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3" spans="6:16">
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
@@ -733,7 +728,7 @@
       <c r="O3" s="2"/>
       <c r="P3" s="3"/>
     </row>
-    <row r="4" spans="6:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="6:16">
       <c r="F4" s="4" t="s">
         <v>0</v>
       </c>
@@ -766,7 +761,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="6:16" ht="60" x14ac:dyDescent="0.25">
+    <row r="5" spans="6:16" ht="56">
       <c r="F5" s="4" t="s">
         <v>9</v>
       </c>
@@ -789,7 +784,7 @@
       <c r="O5" s="2"/>
       <c r="P5" s="3"/>
     </row>
-    <row r="6" spans="6:16" ht="75" x14ac:dyDescent="0.25">
+    <row r="6" spans="6:16" ht="56">
       <c r="F6" s="4" t="s">
         <v>10</v>
       </c>
@@ -816,7 +811,7 @@
       <c r="O6" s="2"/>
       <c r="P6" s="3"/>
     </row>
-    <row r="7" spans="6:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="6:16" ht="28">
       <c r="F7" s="4" t="s">
         <v>11</v>
       </c>
@@ -843,7 +838,7 @@
       <c r="O7" s="2"/>
       <c r="P7" s="3"/>
     </row>
-    <row r="8" spans="6:16" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="6:16" ht="42">
       <c r="F8" s="4" t="s">
         <v>12</v>
       </c>
@@ -863,7 +858,7 @@
         <v>65</v>
       </c>
       <c r="L8" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="M8" s="5" t="s">
         <v>66</v>
@@ -872,7 +867,7 @@
       <c r="O8" s="2"/>
       <c r="P8" s="3"/>
     </row>
-    <row r="9" spans="6:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="6:16" ht="28">
       <c r="F9" s="4" t="s">
         <v>13</v>
       </c>
@@ -892,7 +887,7 @@
         <v>65</v>
       </c>
       <c r="L9" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="M9" s="5" t="s">
         <v>66</v>
@@ -901,7 +896,7 @@
       <c r="O9" s="2"/>
       <c r="P9" s="3"/>
     </row>
-    <row r="10" spans="6:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="6:16" ht="28">
       <c r="F10" s="4" t="s">
         <v>14</v>
       </c>
@@ -921,7 +916,7 @@
         <v>70</v>
       </c>
       <c r="L10" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="M10" s="5" t="s">
         <v>66</v>
@@ -930,7 +925,7 @@
       <c r="O10" s="2"/>
       <c r="P10" s="3"/>
     </row>
-    <row r="11" spans="6:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="6:16" ht="28">
       <c r="F11" s="4" t="s">
         <v>15</v>
       </c>
@@ -950,16 +945,16 @@
         <v>72</v>
       </c>
       <c r="L11" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="M11" s="5" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="N11" s="5"/>
       <c r="O11" s="2"/>
       <c r="P11" s="3"/>
     </row>
-    <row r="12" spans="6:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="6:16" ht="28">
       <c r="F12" s="4" t="s">
         <v>16</v>
       </c>
@@ -973,10 +968,10 @@
         <v>46</v>
       </c>
       <c r="J12" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="K12" s="5" t="s">
         <v>75</v>
-      </c>
-      <c r="K12" s="5" t="s">
-        <v>76</v>
       </c>
       <c r="L12" s="5"/>
       <c r="M12" s="5" t="s">
@@ -986,7 +981,7 @@
       <c r="O12" s="2"/>
       <c r="P12" s="3"/>
     </row>
-    <row r="13" spans="6:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="6:16">
       <c r="F13" s="4" t="s">
         <v>17</v>
       </c>
@@ -1007,7 +1002,7 @@
       <c r="O13" s="2"/>
       <c r="P13" s="3"/>
     </row>
-    <row r="14" spans="6:16" ht="45" x14ac:dyDescent="0.25">
+    <row r="14" spans="6:16" ht="42">
       <c r="F14" s="4" t="s">
         <v>18</v>
       </c>
@@ -1028,7 +1023,7 @@
       <c r="O14" s="2"/>
       <c r="P14" s="3"/>
     </row>
-    <row r="15" spans="6:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="6:16" ht="28">
       <c r="F15" s="4" t="s">
         <v>19</v>
       </c>
@@ -1049,7 +1044,7 @@
       <c r="O15" s="2"/>
       <c r="P15" s="3"/>
     </row>
-    <row r="16" spans="6:16" ht="45" x14ac:dyDescent="0.25">
+    <row r="16" spans="6:16" ht="42">
       <c r="F16" s="4" t="s">
         <v>20</v>
       </c>
@@ -1070,7 +1065,7 @@
       <c r="O16" s="2"/>
       <c r="P16" s="3"/>
     </row>
-    <row r="17" spans="6:16" ht="45" x14ac:dyDescent="0.25">
+    <row r="17" spans="6:16" ht="42">
       <c r="F17" s="4" t="s">
         <v>21</v>
       </c>
@@ -1091,7 +1086,7 @@
       <c r="O17" s="2"/>
       <c r="P17" s="3"/>
     </row>
-    <row r="18" spans="6:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="6:16">
       <c r="F18" s="4" t="s">
         <v>22</v>
       </c>
@@ -1112,7 +1107,7 @@
       <c r="O18" s="2"/>
       <c r="P18" s="3"/>
     </row>
-    <row r="19" spans="6:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="6:16" ht="28">
       <c r="F19" s="4" t="s">
         <v>23</v>
       </c>
@@ -1133,7 +1128,7 @@
       <c r="O19" s="2"/>
       <c r="P19" s="3"/>
     </row>
-    <row r="20" spans="6:16" ht="45" x14ac:dyDescent="0.25">
+    <row r="20" spans="6:16" ht="42">
       <c r="F20" s="4" t="s">
         <v>24</v>
       </c>
@@ -1154,7 +1149,7 @@
       <c r="O20" s="2"/>
       <c r="P20" s="3"/>
     </row>
-    <row r="21" spans="6:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="6:16">
       <c r="F21" s="4" t="s">
         <v>25</v>
       </c>
@@ -1175,7 +1170,7 @@
       <c r="O21" s="2"/>
       <c r="P21" s="3"/>
     </row>
-    <row r="22" spans="6:16" ht="45" x14ac:dyDescent="0.25">
+    <row r="22" spans="6:16" ht="42">
       <c r="F22" s="4" t="s">
         <v>26</v>
       </c>
@@ -1196,7 +1191,7 @@
       <c r="O22" s="2"/>
       <c r="P22" s="3"/>
     </row>
-    <row r="23" spans="6:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="23" spans="6:16" ht="28">
       <c r="F23" s="4" t="s">
         <v>27</v>
       </c>
@@ -1217,7 +1212,7 @@
       <c r="O23" s="2"/>
       <c r="P23" s="3"/>
     </row>
-    <row r="24" spans="6:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="24" spans="6:16" ht="28">
       <c r="F24" s="4" t="s">
         <v>28</v>
       </c>
@@ -1238,7 +1233,7 @@
       <c r="O24" s="2"/>
       <c r="P24" s="3"/>
     </row>
-    <row r="25" spans="6:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="6:16">
       <c r="F25" s="4" t="s">
         <v>29</v>
       </c>
@@ -1259,7 +1254,7 @@
       <c r="O25" s="2"/>
       <c r="P25" s="3"/>
     </row>
-    <row r="26" spans="6:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="6:16">
       <c r="F26" s="4" t="s">
         <v>30</v>
       </c>
@@ -1280,7 +1275,7 @@
       <c r="O26" s="2"/>
       <c r="P26" s="3"/>
     </row>
-    <row r="27" spans="6:16" x14ac:dyDescent="0.25">
+    <row r="27" spans="6:16">
       <c r="F27" s="4" t="s">
         <v>31</v>
       </c>
@@ -1301,7 +1296,7 @@
       <c r="O27" s="2"/>
       <c r="P27" s="3"/>
     </row>
-    <row r="28" spans="6:16" x14ac:dyDescent="0.25">
+    <row r="28" spans="6:16">
       <c r="F28" s="4" t="s">
         <v>32</v>
       </c>
@@ -1322,7 +1317,7 @@
       <c r="O28" s="2"/>
       <c r="P28" s="3"/>
     </row>
-    <row r="29" spans="6:16" x14ac:dyDescent="0.25">
+    <row r="29" spans="6:16">
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
@@ -1335,7 +1330,7 @@
       <c r="O29" s="2"/>
       <c r="P29" s="3"/>
     </row>
-    <row r="30" spans="6:16" x14ac:dyDescent="0.25">
+    <row r="30" spans="6:16">
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
@@ -1348,7 +1343,7 @@
       <c r="O30" s="2"/>
       <c r="P30" s="3"/>
     </row>
-    <row r="31" spans="6:16" x14ac:dyDescent="0.25">
+    <row r="31" spans="6:16">
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
@@ -1361,7 +1356,7 @@
       <c r="O31" s="2"/>
       <c r="P31" s="3"/>
     </row>
-    <row r="32" spans="6:16" x14ac:dyDescent="0.25">
+    <row r="32" spans="6:16">
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
@@ -1374,7 +1369,7 @@
       <c r="O32" s="2"/>
       <c r="P32" s="3"/>
     </row>
-    <row r="33" spans="6:16" x14ac:dyDescent="0.25">
+    <row r="33" spans="6:16">
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
@@ -1387,7 +1382,7 @@
       <c r="O33" s="2"/>
       <c r="P33" s="3"/>
     </row>
-    <row r="34" spans="6:16" x14ac:dyDescent="0.25">
+    <row r="34" spans="6:16">
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
@@ -1400,7 +1395,7 @@
       <c r="O34" s="2"/>
       <c r="P34" s="3"/>
     </row>
-    <row r="35" spans="6:16" x14ac:dyDescent="0.25">
+    <row r="35" spans="6:16">
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
@@ -1413,7 +1408,7 @@
       <c r="O35" s="2"/>
       <c r="P35" s="3"/>
     </row>
-    <row r="36" spans="6:16" x14ac:dyDescent="0.25">
+    <row r="36" spans="6:16">
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
@@ -1426,7 +1421,7 @@
       <c r="O36" s="2"/>
       <c r="P36" s="3"/>
     </row>
-    <row r="37" spans="6:16" x14ac:dyDescent="0.25">
+    <row r="37" spans="6:16">
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
@@ -1444,5 +1439,10 @@
     <hyperlink ref="J9" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>